--- a/translations/Indonesian.xlsx
+++ b/translations/Indonesian.xlsx
@@ -15,7 +15,6 @@
     <sheet name="English Translation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171026"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1228,7 +1227,7 @@
     <t>Ringkasan</t>
   </si>
   <si>
-    <t>Remot untuk Samsung - GRATIS</t>
+    <t>Remot untuk ____ - GRATIS</t>
   </si>
 </sst>
 </file>
@@ -1718,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
